--- a/people.xlsx
+++ b/people.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z19125\Documents\info_contest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\info_contest\RestroomModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7423FA-098A-43CA-8AF0-3DA20A795B55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7419588-BDB4-49F6-A942-26B741430222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +59,17 @@
   </si>
   <si>
     <t>wait_time</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>probability</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t2</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1000,18 +1022,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,27 +1058,30 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>210</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F2">
         <f ca="1">D2+E2</f>
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1064,27 +1089,31 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2">
+        <f ca="1">RAND()</f>
+        <v>0.92818349057844129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>210</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">INT(NORMINV(RAND(),264,60))</f>
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="1">D3+E3</f>
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1092,27 +1121,31 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" ca="1" si="2">RAND()</f>
+        <v>0.80716187136940787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>210</v>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1120,27 +1153,31 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9572860550126473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>210</v>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1148,27 +1185,31 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27564443732053856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>210</v>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1176,27 +1217,31 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77670159885640733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>210</v>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1204,27 +1249,31 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0377566787515669E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>210</v>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1232,27 +1281,31 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26269568178553082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>210</v>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1260,27 +1313,31 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67852986911831292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>210</v>
+      <c r="C10" t="s">
+        <v>10</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1288,27 +1345,31 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.2873953796994471E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>210</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1316,27 +1377,31 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96439176568827201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>210</v>
+      <c r="C12" t="s">
+        <v>10</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1344,27 +1409,31 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39411828394984461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>210</v>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1372,27 +1441,31 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90366142997055132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>210</v>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1400,27 +1473,31 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85334544697567372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>210</v>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1428,27 +1505,31 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58815954594750663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>210</v>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1456,27 +1537,31 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39215679407444592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>210</v>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1484,27 +1569,31 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.17270236837291131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>210</v>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1512,27 +1601,31 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9200862777501659E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>210</v>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1540,27 +1633,31 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.67689131924692969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>210</v>
+      <c r="C20" t="s">
+        <v>10</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1568,27 +1665,31 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.7473799999433125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21">
-        <v>210</v>
+      <c r="C21" t="s">
+        <v>10</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1596,27 +1697,31 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40724020935517713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>210</v>
+      <c r="C22" t="s">
+        <v>10</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1624,27 +1729,31 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58144125221141774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>210</v>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1652,27 +1761,31 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27397925223771846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>210</v>
+      <c r="C24" t="s">
+        <v>10</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1680,27 +1793,31 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0837461321948081E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>210</v>
+      <c r="C25" t="s">
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1708,27 +1825,31 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8906039553487202E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>210</v>
+      <c r="C26" t="s">
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1736,27 +1857,31 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55979468627851292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>210</v>
+      <c r="C27" t="s">
+        <v>10</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1764,27 +1889,31 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6931758668450746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>210</v>
+      <c r="C28" t="s">
+        <v>10</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1792,27 +1921,31 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.90337372307754671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29">
-        <v>210</v>
+      <c r="C29" t="s">
+        <v>10</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1820,27 +1953,31 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77805789679602544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30">
-        <v>210</v>
+      <c r="C30" t="s">
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1848,27 +1985,31 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35579260421749881</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31">
-        <v>210</v>
+      <c r="C31" t="s">
+        <v>10</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1876,27 +2017,31 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22536060212027442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
-        <v>210</v>
+      <c r="C32" t="s">
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1904,27 +2049,31 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54978760311036068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>210</v>
+      <c r="C33" t="s">
+        <v>10</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1932,27 +2081,31 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3133406398475127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
-        <v>210</v>
+      <c r="C34" t="s">
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1960,27 +2113,31 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65386565275500919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>210</v>
+      <c r="C35" t="s">
+        <v>10</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1988,27 +2145,31 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79869427505288704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="C36">
-        <v>210</v>
+      <c r="C36" t="s">
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2016,27 +2177,31 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54577557686453271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37">
-        <v>210</v>
+      <c r="C37" t="s">
+        <v>10</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2044,27 +2209,31 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3008829548044627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
-        <v>210</v>
+      <c r="C38" t="s">
+        <v>10</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2072,27 +2241,31 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3970186271974945E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
-        <v>210</v>
+      <c r="C39" t="s">
+        <v>10</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2100,27 +2273,31 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.88342642139775163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>210</v>
+      <c r="C40" t="s">
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2128,27 +2305,31 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64248316033858199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41">
-        <v>210</v>
+      <c r="C41" t="s">
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2156,27 +2337,31 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51573251729590819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>210</v>
+      <c r="C42" t="s">
+        <v>10</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2184,27 +2369,31 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.4959729556706156E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>210</v>
+      <c r="C43" t="s">
+        <v>10</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2212,27 +2401,31 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69600723212575211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
-      <c r="C44">
-        <v>210</v>
+      <c r="C44" t="s">
+        <v>10</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2240,27 +2433,31 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15826689754321599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-      <c r="C45">
-        <v>210</v>
+      <c r="C45" t="s">
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2268,27 +2465,31 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50051361952738882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46">
-        <v>210</v>
+      <c r="C46" t="s">
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2296,27 +2497,31 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49249560312543728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
-        <v>210</v>
+      <c r="C47" t="s">
+        <v>10</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2324,27 +2529,31 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9590924830687817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
-      <c r="C48">
-        <v>210</v>
+      <c r="C48" t="s">
+        <v>10</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="1"/>
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2352,27 +2561,31 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.7254563341349169E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
-      <c r="C49">
-        <v>210</v>
+      <c r="C49" t="s">
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="1"/>
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2380,27 +2593,31 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65592464163424591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>210</v>
+      <c r="C50" t="s">
+        <v>10</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2408,27 +2625,31 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85637288260986266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
-        <v>210</v>
+      <c r="C51" t="s">
+        <v>10</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2436,27 +2657,31 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.1686282655420199E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
-      <c r="C52">
-        <v>210</v>
+      <c r="C52" t="s">
+        <v>10</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2464,27 +2689,31 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2318018478100351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53">
-        <v>210</v>
+      <c r="C53" t="s">
+        <v>10</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2492,27 +2721,31 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.61638430380672826</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54">
-        <v>210</v>
+      <c r="C54" t="s">
+        <v>10</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2520,27 +2753,31 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36714580008252418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55">
-        <v>210</v>
+      <c r="C55" t="s">
+        <v>10</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="1"/>
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2548,27 +2785,31 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23928258613863762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
-      <c r="C56">
-        <v>210</v>
+      <c r="C56" t="s">
+        <v>10</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2576,27 +2817,31 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82385961740829439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57">
-        <v>210</v>
+      <c r="C57" t="s">
+        <v>10</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2604,27 +2849,31 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84404770103707083</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58">
-        <v>210</v>
+      <c r="C58" t="s">
+        <v>10</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>191</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2632,27 +2881,31 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33735600393483256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59">
-        <v>210</v>
+      <c r="C59" t="s">
+        <v>10</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2660,27 +2913,31 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.83909303138016911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-      <c r="C60">
-        <v>210</v>
+      <c r="C60" t="s">
+        <v>10</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2688,27 +2945,31 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7845387544293172E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
-      <c r="C61">
-        <v>210</v>
+      <c r="C61" t="s">
+        <v>10</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="1"/>
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2716,27 +2977,31 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.18355017257315209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
-      <c r="C62">
-        <v>210</v>
+      <c r="C62" t="s">
+        <v>10</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="1"/>
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2744,27 +3009,31 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30432527944114574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63">
-        <v>210</v>
+      <c r="C63" t="s">
+        <v>10</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2772,27 +3041,31 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.86848715670556198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64">
-        <v>210</v>
+      <c r="C64" t="s">
+        <v>10</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2800,27 +3073,31 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45791680056063955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
-      <c r="C65">
-        <v>210</v>
+      <c r="C65" t="s">
+        <v>10</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2828,27 +3105,31 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57699970203848228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
-      <c r="C66">
-        <v>210</v>
+      <c r="C66" t="s">
+        <v>10</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -2856,27 +3137,31 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50552169185583218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
-        <v>210</v>
+      <c r="C67" t="s">
+        <v>10</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" ca="1" si="2">INT(NORMINV(RAND(),264,60))</f>
-        <v>270</v>
+        <f t="shared" ref="E67:E101" ca="1" si="3">INT(NORMINV(RAND(),264,60))</f>
+        <v>269</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F101" ca="1" si="3">D67+E67</f>
-        <v>270</v>
+        <f t="shared" ref="F67:F101" ca="1" si="4">D67+E67</f>
+        <v>269</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2884,27 +3169,31 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67">
+        <f t="shared" ref="I67:I101" ca="1" si="5">RAND()</f>
+        <v>0.69272214674518706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="C68">
-        <v>210</v>
+      <c r="C68" t="s">
+        <v>10</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>252</v>
       </c>
       <c r="F68">
-        <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>252</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2912,27 +3201,31 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.11250531323889E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>210</v>
+      <c r="C69" t="s">
+        <v>10</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="2"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>282</v>
       </c>
       <c r="F69">
-        <f t="shared" ca="1" si="3"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>282</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2940,27 +3233,31 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.31390907039132421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
-      <c r="C70">
-        <v>210</v>
+      <c r="C70" t="s">
+        <v>10</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="2"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>205</v>
       </c>
       <c r="F70">
-        <f t="shared" ca="1" si="3"/>
-        <v>286</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>205</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2968,27 +3265,31 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48438542306251475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
-      <c r="C71">
-        <v>210</v>
+      <c r="C71" t="s">
+        <v>10</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>287</v>
       </c>
       <c r="F71">
-        <f t="shared" ca="1" si="3"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>287</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2996,27 +3297,31 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.16203197804570146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
-      <c r="C72">
-        <v>210</v>
+      <c r="C72" t="s">
+        <v>10</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>216</v>
       </c>
       <c r="F72">
-        <f t="shared" ca="1" si="3"/>
-        <v>183</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>216</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3024,391 +3329,447 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.23357813717561138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73">
-        <v>210</v>
+      <c r="C73" t="s">
+        <v>10</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="2"/>
-        <v>269</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>211</v>
       </c>
       <c r="F73">
+        <f t="shared" ca="1" si="4"/>
+        <v>211</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.42337284100386852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.912449659708821E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="3"/>
+        <v>262</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.90302464421867223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.77248392947681632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.74316222958394373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="4"/>
+        <v>245</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4162673805997823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.96138536570439792</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="3"/>
+        <v>336</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.64282661377474271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.85070949955850428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65577796466938054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.66238364041342712</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="4"/>
+        <v>213</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38854480014235959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.70024688043068894</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <f t="shared" ca="1" si="3"/>
         <v>269</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>210</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="F74">
-        <f t="shared" ca="1" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>210</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ca="1" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>210</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="2"/>
-        <v>381</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ca="1" si="3"/>
-        <v>381</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77">
-        <v>210</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="2"/>
-        <v>347</v>
-      </c>
-      <c r="F77">
-        <f t="shared" ca="1" si="3"/>
-        <v>347</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>210</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="2"/>
-        <v>264</v>
-      </c>
-      <c r="F78">
-        <f t="shared" ca="1" si="3"/>
-        <v>264</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79">
-        <v>210</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="F79">
-        <f t="shared" ca="1" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80">
-        <v>210</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="2"/>
-        <v>242</v>
-      </c>
-      <c r="F80">
-        <f t="shared" ca="1" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>210</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="2"/>
-        <v>233</v>
-      </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="3"/>
-        <v>233</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82">
-        <v>210</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="2"/>
-        <v>299</v>
-      </c>
-      <c r="F82">
-        <f t="shared" ca="1" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83">
-        <v>210</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="2"/>
-        <v>248</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ca="1" si="3"/>
-        <v>248</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84">
-        <v>210</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="2"/>
-        <v>297</v>
-      </c>
-      <c r="F84">
-        <f t="shared" ca="1" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85">
-        <v>210</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="2"/>
-        <v>164</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86">
-        <v>210</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="2"/>
-        <v>302</v>
-      </c>
       <c r="F86">
-        <f t="shared" ca="1" si="3"/>
-        <v>302</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>269</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3416,27 +3777,31 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I86">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.93247467113693305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87">
-        <v>210</v>
+      <c r="C87" t="s">
+        <v>10</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" ca="1" si="2"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>216</v>
       </c>
       <c r="F87">
-        <f t="shared" ca="1" si="3"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>216</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3444,27 +3809,31 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I87">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5245318583766911E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-      <c r="C88">
-        <v>210</v>
+      <c r="C88" t="s">
+        <v>10</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="2"/>
-        <v>309</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>254</v>
       </c>
       <c r="F88">
-        <f t="shared" ca="1" si="3"/>
-        <v>309</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>254</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3472,27 +3841,31 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I88">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65626740305773545</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
-      <c r="C89">
-        <v>210</v>
+      <c r="C89" t="s">
+        <v>10</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="2"/>
-        <v>327</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>303</v>
       </c>
       <c r="F89">
-        <f t="shared" ca="1" si="3"/>
-        <v>327</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>303</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3500,27 +3873,31 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I89">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.38942324698988195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
-      <c r="C90">
-        <v>210</v>
+      <c r="C90" t="s">
+        <v>10</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="2"/>
-        <v>291</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>260</v>
       </c>
       <c r="F90">
-        <f t="shared" ca="1" si="3"/>
-        <v>291</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>260</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3528,27 +3905,31 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I90">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.86731365684079109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
-      <c r="C91">
-        <v>210</v>
+      <c r="C91" t="s">
+        <v>10</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>282</v>
       </c>
       <c r="F91">
-        <f t="shared" ca="1" si="3"/>
-        <v>193</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>282</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3556,27 +3937,31 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I91">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.76570931121661256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
-      <c r="C92">
-        <v>210</v>
+      <c r="C92" t="s">
+        <v>10</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="2"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>245</v>
       </c>
       <c r="F92">
-        <f t="shared" ca="1" si="3"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>245</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3584,27 +3969,31 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I92">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71545585108019727</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
-      <c r="C93">
-        <v>210</v>
+      <c r="C93" t="s">
+        <v>10</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="2"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>303</v>
       </c>
       <c r="F93">
-        <f t="shared" ca="1" si="3"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>303</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3612,27 +4001,31 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I93">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1649244953614124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="C94">
-        <v>210</v>
+      <c r="C94" t="s">
+        <v>10</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="2"/>
-        <v>343</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>185</v>
       </c>
       <c r="F94">
-        <f t="shared" ca="1" si="3"/>
-        <v>343</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>185</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3640,27 +4033,31 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I94">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.59992597587770491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
-      <c r="C95">
-        <v>210</v>
+      <c r="C95" t="s">
+        <v>10</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>342</v>
       </c>
       <c r="F95">
-        <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>342</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3668,27 +4065,31 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I95">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.75232527385060555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96">
-        <v>210</v>
+      <c r="C96" t="s">
+        <v>10</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>214</v>
       </c>
       <c r="F96">
-        <f t="shared" ca="1" si="3"/>
-        <v>350</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>214</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3696,27 +4097,31 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I96">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20835975021665332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97">
-        <v>210</v>
+      <c r="C97" t="s">
+        <v>10</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>323</v>
       </c>
       <c r="F97">
-        <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>323</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3724,27 +4129,31 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I97">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.26288172554894629</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
-      <c r="C98">
-        <v>210</v>
+      <c r="C98" t="s">
+        <v>10</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" ca="1" si="2"/>
-        <v>149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>358</v>
       </c>
       <c r="F98">
-        <f t="shared" ca="1" si="3"/>
-        <v>149</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>358</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3752,27 +4161,31 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I98">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.89130594694038923</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="C99">
-        <v>210</v>
+      <c r="C99" t="s">
+        <v>10</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="2"/>
-        <v>230</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>245</v>
       </c>
       <c r="F99">
-        <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>245</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3780,27 +4193,31 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I99">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71336635434426698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
-      <c r="C100">
-        <v>210</v>
+      <c r="C100" t="s">
+        <v>10</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>245</v>
       </c>
       <c r="F100">
-        <f t="shared" ca="1" si="3"/>
-        <v>255</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>245</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3808,33 +4225,41 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I100">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.97345000689047345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
-      <c r="C101">
-        <v>210</v>
+      <c r="C101" t="s">
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>177</v>
       </c>
       <c r="F101">
-        <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>177</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.99700457007817389</v>
       </c>
     </row>
   </sheetData>

--- a/people.xlsx
+++ b/people.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z19125\Documents\info_contest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RestroomModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580B537E-B42B-4891-BBA9-21ECD071278F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA66897C-C358-416B-A1F9-1BD3DD74D1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,22 @@
     <sheet name="people" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +70,34 @@
   </si>
   <si>
     <t>t2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t6</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1011,18 +1050,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1063,15 +1102,15 @@
       </c>
       <c r="D2">
         <f ca="1">INT(600*I2)</f>
-        <v>254</v>
+        <v>487</v>
       </c>
       <c r="E2">
         <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="F2">
         <f ca="1">D2+E2</f>
-        <v>526</v>
+        <v>820</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1081,10 +1120,10 @@
       </c>
       <c r="I2">
         <f ca="1">RAND()</f>
-        <v>0.4246457755657389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.81256071577058919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1096,15 +1135,15 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="0">INT(600*I3)</f>
-        <v>353</v>
+        <v>519</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E31" ca="1" si="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>341</v>
+        <f t="shared" ref="E3:E66" ca="1" si="1">INT(NORMINV(RAND(),264,60))</f>
+        <v>236</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F31" ca="1" si="2">D3+E3</f>
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1113,11 +1152,11 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I31" ca="1" si="3">RAND()</f>
-        <v>0.58845726836946399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="I3:I66" ca="1" si="3">RAND()</f>
+        <v>0.86635318619772916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1129,15 +1168,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>350</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>510</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1147,10 +1186,10 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9046622434531284E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.26690071573089136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1162,15 +1201,15 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>584</v>
+        <v>463</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>855</v>
+        <v>717</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1180,10 +1219,10 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97378759662690861</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.7728347749562523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1195,15 +1234,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>321</v>
+        <v>542</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1213,10 +1252,10 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2515835243390524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.51779232121471774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1228,15 +1267,15 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>795</v>
+        <v>531</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,10 +1285,10 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87694331905719558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.41323204951715131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1261,15 +1300,15 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>160</v>
+        <v>286</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1279,10 +1318,10 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7929199627126642E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.21350105589670665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1294,15 +1333,15 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>553</v>
+        <v>471</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1312,10 +1351,10 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30750762807211551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2538975000505953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1327,15 +1366,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>589</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>829</v>
+        <v>421</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1345,10 +1384,10 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98267571552610022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.25318090971832086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1360,15 +1399,15 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>669</v>
+        <v>188</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1378,10 +1417,10 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66898589957263754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>9.2424385332833592E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1393,15 +1432,15 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>436</v>
+        <v>572</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>748</v>
+        <v>805</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1411,10 +1450,10 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72747516225677999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.9542484905433205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1426,15 +1465,15 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>461</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <v>226</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>580</v>
+        <v>687</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1444,10 +1483,10 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37139295775853498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.7694118400843285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1459,15 +1498,15 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>787</v>
+        <v>403</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1477,10 +1516,10 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88600213084465795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.12864414644028421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1492,15 +1531,15 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>849</v>
+        <v>408</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1510,10 +1549,10 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9786874132352128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.13572165946571113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1525,15 +1564,15 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>522</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>717</v>
+        <v>251</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1543,10 +1582,10 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87107266442234377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2.4806294322526123E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1558,15 +1597,15 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>317</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>665</v>
+        <v>364</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1576,10 +1615,10 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74730030051283924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7.9256681419646924E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1591,15 +1630,15 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>329</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>344</v>
+        <v>683</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1609,10 +1648,10 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28972280105982751</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.54969477850363235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1624,15 +1663,15 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>712</v>
+        <v>335</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1642,10 +1681,10 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62407830675232889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.12826745034609544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1657,15 +1696,15 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>543</v>
+        <v>436</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1675,10 +1714,10 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47387147575038502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.44315074789624498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1690,15 +1729,15 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>459</v>
+        <v>531</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1708,10 +1747,10 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46118529650527929</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.55146144645564577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1723,15 +1762,15 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>507</v>
+        <v>370</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1741,10 +1780,10 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52526053261371841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.208779372737535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1756,15 +1795,15 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>587</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1774,10 +1813,10 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13053782794758784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.64623915707770818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1789,15 +1828,15 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="0"/>
-        <v>543</v>
+        <v>392</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1807,10 +1846,10 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90597456372034568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.65434206357294677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1822,15 +1861,15 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1840,10 +1879,10 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52657959463746795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.45172970701803417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1855,15 +1894,15 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>469</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1873,10 +1912,10 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4873022781362959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.78283772665682894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1888,15 +1927,15 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>542</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>534</v>
+        <v>776</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1906,10 +1945,10 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37424212211066787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90445172893293468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1921,15 +1960,15 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>573</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1939,10 +1978,10 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2782254406277707E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.3920467300242273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1954,15 +1993,15 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>451</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>681</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1972,10 +2011,10 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24855464833348229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.75278959614426222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1987,15 +2026,15 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>580</v>
+        <v>221</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>819</v>
+        <v>466</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2005,10 +2044,10 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96707050728282451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0.36934790055643774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2020,15 +2059,15 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2038,7 +2077,3967 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6763575583230836E-2</v>
+        <v>9.862638728836759E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <f ca="1">INT(600*I32)</f>
+        <v>390</v>
+      </c>
+      <c r="E32">
+        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
+        <v>128</v>
+      </c>
+      <c r="F32">
+        <f ca="1">D32+E32</f>
+        <v>518</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f ca="1">RAND()</f>
+        <v>0.65097128447114105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D61" ca="1" si="4">INT(600*I33)</f>
+        <v>170</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F61" ca="1" si="5">D33+E33</f>
+        <v>349</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28410331149373169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="5"/>
+        <v>734</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.90029794500419424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="5"/>
+        <v>501</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49136462808992731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="5"/>
+        <v>283</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.4260385045047728E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="5"/>
+        <v>518</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30165648764779074</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23562676824827289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.8341345299822992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>416</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="5"/>
+        <v>617</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.69434430067055808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24879248998356562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="5"/>
+        <v>644</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81796259505166524</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="5"/>
+        <v>785</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.95044574516582081</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>394</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4300532172184599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>364</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>338</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="5"/>
+        <v>702</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.60700906944868027</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="5"/>
+        <v>413</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.18846273685119108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.9011555927165023E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="5"/>
+        <v>609</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66805926409087724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="4"/>
+        <v>435</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="5"/>
+        <v>728</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.72504926590001695</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="4"/>
+        <v>428</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.71399554888465622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="5"/>
+        <v>717</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.6203282195080646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>428</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="5"/>
+        <v>668</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.71431140977520646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15505389352618992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="5"/>
+        <v>521</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47121916140393527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>386</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="5"/>
+        <v>558</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.64435825981362815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="5"/>
+        <v>571</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47260622697821186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="5"/>
+        <v>652</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.51175593791614493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>557</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="5"/>
+        <v>827</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.92864017412065047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>486</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="5"/>
+        <v>716</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.81004560660467628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="3"/>
+        <v>8.8680471613295286E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>566</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="5"/>
+        <v>862</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.94416935184635054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <f ca="1">INT(600*I62)</f>
+        <v>318</v>
+      </c>
+      <c r="E62">
+        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
+        <v>349</v>
+      </c>
+      <c r="F62">
+        <f ca="1">D62+E62</f>
+        <v>667</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f ca="1">RAND()</f>
+        <v>0.53152346812255891</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:D91" ca="1" si="6">INT(600*I63)</f>
+        <v>215</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F91" ca="1" si="7">D63+E63</f>
+        <v>596</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35978529358691358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="6"/>
+        <v>301</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="1"/>
+        <v>236</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="7"/>
+        <v>537</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.50261686256514038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="7"/>
+        <v>402</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.29280470557386928</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="6"/>
+        <v>511</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="7"/>
+        <v>728</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.85246626578754703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="6"/>
+        <v>557</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E91" ca="1" si="8">INT(NORMINV(RAND(),264,60))</f>
+        <v>303</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="7"/>
+        <v>860</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I91" ca="1" si="9">RAND()</f>
+        <v>0.92865211678910975</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="8"/>
+        <v>384</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="7"/>
+        <v>894</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.85002247590510616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="8"/>
+        <v>348</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="7"/>
+        <v>733</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.64294043409592083</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="6"/>
+        <v>159</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="8"/>
+        <v>342</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="7"/>
+        <v>501</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.26591456722509732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="8"/>
+        <v>294</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="7"/>
+        <v>505</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.3529191705564253</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="7"/>
+        <v>661</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.66766976396948818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="6"/>
+        <v>317</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="7"/>
+        <v>554</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.52939766143380396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="6"/>
+        <v>543</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="7"/>
+        <v>715</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.90655057558912822</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="6"/>
+        <v>463</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="7"/>
+        <v>667</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.77205987820607924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="8"/>
+        <v>289</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ca="1" si="7"/>
+        <v>354</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.10877156731451498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="8"/>
+        <v>307</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="7"/>
+        <v>580</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.4560576009564925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="8"/>
+        <v>301</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="7"/>
+        <v>321</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.450284311253482E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="8"/>
+        <v>335</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="7"/>
+        <v>349</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.4093533856822225E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="6"/>
+        <v>499</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="8"/>
+        <v>328</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="7"/>
+        <v>827</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.83300375918778524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="6"/>
+        <v>392</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="7"/>
+        <v>662</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.65485058548316244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="8"/>
+        <v>213</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="7"/>
+        <v>275</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.10386307951909324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="6"/>
+        <v>468</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="7"/>
+        <v>717</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.7810010413355557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="8"/>
+        <v>220</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="7"/>
+        <v>249</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.8978235162303041E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="7"/>
+        <v>315</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.2261067281266911E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.36222461841030229</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="6"/>
+        <v>437</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="8"/>
+        <v>281</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="7"/>
+        <v>718</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.72967614715777385</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="7"/>
+        <v>332</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.16479963815488874</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="7"/>
+        <v>578</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.38116305249629256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="8"/>
+        <v>309</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="7"/>
+        <v>847</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.89695751301507576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="8"/>
+        <v>280</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="7"/>
+        <v>543</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.43874415916212672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>60</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92">
+        <f ca="1">INT(600*I92)</f>
+        <v>470</v>
+      </c>
+      <c r="E92">
+        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
+        <v>314</v>
+      </c>
+      <c r="F92">
+        <f ca="1">D92+E92</f>
+        <v>784</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f ca="1">RAND()</f>
+        <v>0.78343906247485506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ref="D93:D121" ca="1" si="10">INT(600*I93)</f>
+        <v>53</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:E151" ca="1" si="11">INT(NORMINV(RAND(),264,60))</f>
+        <v>356</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ref="F93:F121" ca="1" si="12">D93+E93</f>
+        <v>409</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93:I151" ca="1" si="13">RAND()</f>
+        <v>8.8926172694521299E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="11"/>
+        <v>212</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="12"/>
+        <v>512</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.50154902550989933</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="10"/>
+        <v>543</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="11"/>
+        <v>261</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="12"/>
+        <v>804</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.90626506377836291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="10"/>
+        <v>560</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="12"/>
+        <v>750</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.93383737039191539</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="10"/>
+        <v>304</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="11"/>
+        <v>249</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="12"/>
+        <v>553</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5078247149084103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="12"/>
+        <v>311</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.9323385405284146E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>67</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="10"/>
+        <v>284</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="11"/>
+        <v>318</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="12"/>
+        <v>602</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.47436284639345672</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>68</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="11"/>
+        <v>180</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="12"/>
+        <v>660</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.80113101690469257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="11"/>
+        <v>243</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="12"/>
+        <v>514</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.45192262916716963</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="11"/>
+        <v>193</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.26262913441965874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="10"/>
+        <v>205</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="12"/>
+        <v>415</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34308291630141496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>72</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="10"/>
+        <v>519</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="11"/>
+        <v>232</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="12"/>
+        <v>751</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.86559192854153877</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>73</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="11"/>
+        <v>223</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="12"/>
+        <v>283</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.10071909653494071</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>74</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="11"/>
+        <v>356</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="12"/>
+        <v>370</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.4863017521845276E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>75</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="10"/>
+        <v>362</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="11"/>
+        <v>229</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="12"/>
+        <v>591</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.60333635651186845</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="10"/>
+        <v>243</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="12"/>
+        <v>483</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.40539264767585381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="10"/>
+        <v>332</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="12"/>
+        <v>452</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5534060046008844</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="10"/>
+        <v>106</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="12"/>
+        <v>316</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.17683111643831961</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>79</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="12"/>
+        <v>641</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5626427284202683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>80</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="11"/>
+        <v>358</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.13833135173716082</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>81</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="10"/>
+        <v>307</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="11"/>
+        <v>184</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="12"/>
+        <v>491</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.51217849936029491</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>82</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="11"/>
+        <v>377</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="12"/>
+        <v>397</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.3844335892770583E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="10"/>
+        <v>333</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="11"/>
+        <v>261</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="12"/>
+        <v>594</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.55619298809689466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>84</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="10"/>
+        <v>374</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="11"/>
+        <v>308</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="12"/>
+        <v>682</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.62361305267614242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>85</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="10"/>
+        <v>495</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="11"/>
+        <v>205</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.82624257098070786</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>86</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="10"/>
+        <v>424</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="11"/>
+        <v>233</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="12"/>
+        <v>657</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.70734793612661118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>87</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="11"/>
+        <v>210</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="12"/>
+        <v>438</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.38160969430972369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>88</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="11"/>
+        <v>286</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="12"/>
+        <v>490</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34068377120029081</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>89</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="10"/>
+        <v>523</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="12"/>
+        <v>668</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.87171034311193507</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>90</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122">
+        <f ca="1">INT(600*I122)</f>
+        <v>307</v>
+      </c>
+      <c r="E122">
+        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
+        <v>304</v>
+      </c>
+      <c r="F122">
+        <f ca="1">D122+E122</f>
+        <v>611</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f ca="1">RAND()</f>
+        <v>0.51214078134597485</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>91</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123:D151" ca="1" si="14">INT(600*I123)</f>
+        <v>74</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="11"/>
+        <v>270</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123:F151" ca="1" si="15">D123+E123</f>
+        <v>344</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.12347419101445889</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>92</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="14"/>
+        <v>549</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="11"/>
+        <v>317</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ca="1" si="15"/>
+        <v>866</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.91524872471613083</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>93</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="14"/>
+        <v>123</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="11"/>
+        <v>279</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ca="1" si="15"/>
+        <v>402</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.20563186791871157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>94</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="14"/>
+        <v>487</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="11"/>
+        <v>285</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ca="1" si="15"/>
+        <v>772</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.81233936242470306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>95</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="14"/>
+        <v>164</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="11"/>
+        <v>288</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="15"/>
+        <v>452</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.27461279956338203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>96</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="11"/>
+        <v>311</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ca="1" si="15"/>
+        <v>511</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.33439111366414942</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>97</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="14"/>
+        <v>207</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="11"/>
+        <v>165</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ca="1" si="15"/>
+        <v>372</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.34651603737328485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="14"/>
+        <v>270</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="11"/>
+        <v>216</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ca="1" si="15"/>
+        <v>486</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.45082896122722371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>99</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ca="1" si="14"/>
+        <v>127</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ca="1" si="15"/>
+        <v>213</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.21226777897153992</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>100</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="14"/>
+        <v>243</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="11"/>
+        <v>267</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ca="1" si="15"/>
+        <v>510</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.40552425037497675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="14"/>
+        <v>61</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="11"/>
+        <v>293</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ca="1" si="15"/>
+        <v>354</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.10315506311322931</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>102</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="14"/>
+        <v>347</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="11"/>
+        <v>301</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ca="1" si="15"/>
+        <v>648</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.57863898479906595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>103</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="11"/>
+        <v>238</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ca="1" si="15"/>
+        <v>263</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ca="1" si="13"/>
+        <v>4.2397982101134435E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>104</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="14"/>
+        <v>406</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="11"/>
+        <v>313</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ca="1" si="15"/>
+        <v>719</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.67710506413111682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ca="1" si="14"/>
+        <v>562</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ca="1" si="15"/>
+        <v>857</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.93681219115408887</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>106</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="14"/>
+        <v>505</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="11"/>
+        <v>287</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ca="1" si="15"/>
+        <v>792</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.84290946128086375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>107</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="14"/>
+        <v>477</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="11"/>
+        <v>276</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ca="1" si="15"/>
+        <v>753</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.79560335660021231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>108</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140">
+        <f t="shared" ca="1" si="14"/>
+        <v>547</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ca="1" si="15"/>
+        <v>815</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.91263619178050326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>109</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="11"/>
+        <v>303</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="15"/>
+        <v>348</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.551072538683512E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>110</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="14"/>
+        <v>151</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="11"/>
+        <v>256</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ca="1" si="15"/>
+        <v>407</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.25217244191737032</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>111</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ca="1" si="14"/>
+        <v>143</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ca="1" si="15"/>
+        <v>411</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.23949031787751562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>112</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="11"/>
+        <v>307</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ca="1" si="15"/>
+        <v>314</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1675996989210402E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>113</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ca="1" si="15"/>
+        <v>127</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.9372174450073736E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>114</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ca="1" si="14"/>
+        <v>387</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="11"/>
+        <v>308</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ca="1" si="15"/>
+        <v>695</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.64570349298760699</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>115</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147">
+        <f t="shared" ca="1" si="14"/>
+        <v>283</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="11"/>
+        <v>263</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ca="1" si="15"/>
+        <v>546</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.47253286475268585</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>116</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ca="1" si="14"/>
+        <v>146</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="11"/>
+        <v>205</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ca="1" si="15"/>
+        <v>351</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.24355635205873349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>117</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149">
+        <f t="shared" ca="1" si="14"/>
+        <v>592</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="11"/>
+        <v>384</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ca="1" si="15"/>
+        <v>976</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.98820178134021142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>118</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150">
+        <f t="shared" ca="1" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ca="1" si="15"/>
+        <v>797</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.96807856372916112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>119</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ca="1" si="14"/>
+        <v>252</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="11"/>
+        <v>351</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ca="1" si="15"/>
+        <v>603</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.42083303445553966</v>
       </c>
     </row>
   </sheetData>

--- a/people.xlsx
+++ b/people.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RestroomModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA66897C-C358-416B-A1F9-1BD3DD74D1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC3B0F-52FC-4AE0-BBD9-085FC9BD09D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1102,15 +1102,14 @@
       </c>
       <c r="D2">
         <f ca="1">INT(600*I2)</f>
-        <v>487</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="F2">
         <f ca="1">D2+E2</f>
-        <v>820</v>
+        <v>406</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1120,7 +1119,7 @@
       </c>
       <c r="I2">
         <f ca="1">RAND()</f>
-        <v>0.81256071577058919</v>
+        <v>0.20413187709076108</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -1135,15 +1134,14 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="0">INT(600*I3)</f>
-        <v>519</v>
+        <v>178</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" ca="1" si="2">D3+E3</f>
-        <v>755</v>
+        <f t="shared" ref="F3:F31" ca="1" si="1">D3+E3</f>
+        <v>462</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1152,8 +1150,8 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" ca="1" si="3">RAND()</f>
-        <v>0.86635318619772916</v>
+        <f t="shared" ref="I3:I66" ca="1" si="2">RAND()</f>
+        <v>0.29755799384286863</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1168,15 +1166,14 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="E4">
+        <v>284</v>
+      </c>
+      <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="2"/>
-        <v>510</v>
+        <v>297</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1185,8 +1182,8 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.26690071573089136</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2533838884478463E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1201,15 +1198,14 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>232</v>
       </c>
       <c r="E5">
+        <v>284</v>
+      </c>
+      <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="2"/>
-        <v>717</v>
+        <v>516</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1218,8 +1214,8 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.7728347749562523</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38670197682790786</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1234,15 +1230,14 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>310</v>
+        <v>516</v>
       </c>
       <c r="E6">
+        <v>284</v>
+      </c>
+      <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>232</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="2"/>
-        <v>542</v>
+        <v>800</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1251,8 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.51779232121471774</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.8600939019616618</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1267,15 +1262,14 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>462</v>
       </c>
       <c r="E7">
+        <v>284</v>
+      </c>
+      <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>284</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="2"/>
-        <v>531</v>
+        <v>746</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1284,8 +1278,8 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.41323204951715131</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.77060449734293257</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -1300,15 +1294,14 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="E8">
+        <v>284</v>
+      </c>
+      <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>286</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="2"/>
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1317,8 +1310,8 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.21350105589670665</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.6368840878418527E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1333,15 +1326,14 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>412</v>
       </c>
       <c r="E9">
+        <v>284</v>
+      </c>
+      <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>319</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="2"/>
-        <v>471</v>
+        <v>696</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1350,8 +1342,8 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.2538975000505953</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68691515699064476</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1366,15 +1358,14 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="E10">
+        <v>284</v>
+      </c>
+      <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1383,8 +1374,8 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25318090971832086</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4815070109085116E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1399,15 +1390,14 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="E11">
+        <v>284</v>
+      </c>
+      <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>806</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1416,8 +1406,8 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.2424385332833592E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87047701993163484</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -1432,15 +1422,14 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>572</v>
+        <v>308</v>
       </c>
       <c r="E12">
+        <v>284</v>
+      </c>
+      <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="2"/>
-        <v>805</v>
+        <v>592</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1449,8 +1438,8 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.9542484905433205</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5140868108385378</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1465,15 +1454,14 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="E13">
+        <v>284</v>
+      </c>
+      <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ca="1" si="2"/>
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1482,8 +1470,8 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.7694118400843285</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.66517231213195016</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -1498,15 +1486,14 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="E14">
+        <v>284</v>
+      </c>
+      <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="2"/>
-        <v>403</v>
+        <v>571</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1515,8 +1502,8 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.12864414644028421</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47929191291509288</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -1531,15 +1518,14 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>539</v>
       </c>
       <c r="E15">
+        <v>284</v>
+      </c>
+      <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="2"/>
-        <v>408</v>
+        <v>823</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1548,8 +1534,8 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13572165946571113</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89856143958004497</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1564,15 +1550,14 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>389</v>
       </c>
       <c r="E16">
+        <v>284</v>
+      </c>
+      <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>673</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1581,8 +1566,8 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4806294322526123E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.64907403184295531</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1597,15 +1582,14 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="E17">
+        <v>284</v>
+      </c>
+      <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>317</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>364</v>
+        <v>583</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1614,8 +1598,8 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9256681419646924E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49920826682280262</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1630,15 +1614,14 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="E18">
+        <v>284</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>354</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>683</v>
+        <v>359</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1647,8 +1630,8 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.54969477850363235</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12522448521921103</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1663,15 +1646,14 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="E19">
+        <v>284</v>
+      </c>
+      <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>259</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>335</v>
+        <v>565</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1680,8 +1662,8 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.12826745034609544</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46984907462531023</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1696,15 +1678,14 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="E20">
+        <v>284</v>
+      </c>
+      <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>436</v>
+        <v>579</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1713,8 +1694,8 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44315074789624498</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49244483316944965</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1729,15 +1710,14 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>6</v>
       </c>
       <c r="E21">
+        <v>284</v>
+      </c>
+      <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>531</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1746,8 +1726,8 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.55146144645564577</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0229670360168197E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1762,15 +1742,14 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="E22">
+        <v>284</v>
+      </c>
+      <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1779,8 +1758,8 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.208779372737535</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10956748619873391</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1795,15 +1774,14 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="0"/>
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E23">
+        <v>284</v>
+      </c>
+      <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="2"/>
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1812,8 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.64623915707770818</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6674471522437696</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1831,12 +1809,11 @@
         <v>392</v>
       </c>
       <c r="E24">
+        <v>284</v>
+      </c>
+      <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>381</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="2"/>
-        <v>773</v>
+        <v>676</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1845,8 +1822,8 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.65434206357294677</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.65441859028048766</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1861,15 +1838,14 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E25">
+        <v>284</v>
+      </c>
+      <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="2"/>
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1878,8 +1854,8 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.45172970701803417</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3608420906033194</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1894,15 +1870,14 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>338</v>
       </c>
       <c r="E26">
+        <v>284</v>
+      </c>
+      <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="2"/>
-        <v>693</v>
+        <v>622</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1911,8 +1886,8 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.78283772665682894</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.56440796863505105</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1927,15 +1902,14 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="0"/>
-        <v>542</v>
+        <v>249</v>
       </c>
       <c r="E27">
+        <v>284</v>
+      </c>
+      <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="2"/>
-        <v>776</v>
+        <v>533</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1944,8 +1918,8 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.90445172893293468</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41572283329866788</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1960,15 +1934,14 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E28">
+        <v>284</v>
+      </c>
+      <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>338</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="2"/>
-        <v>573</v>
+        <v>508</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1977,8 +1950,8 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.3920467300242273</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.37427223498817908</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1993,15 +1966,14 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="0"/>
-        <v>451</v>
+        <v>218</v>
       </c>
       <c r="E29">
+        <v>284</v>
+      </c>
+      <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="2"/>
-        <v>681</v>
+        <v>502</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2010,8 +1982,8 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.75278959614426222</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36442665816385011</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -2026,15 +1998,14 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="E30">
+        <v>284</v>
+      </c>
+      <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="2"/>
-        <v>466</v>
+        <v>612</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2043,8 +2014,8 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36934790055643774</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54801759718035281</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -2059,15 +2030,14 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E31">
+        <v>284</v>
+      </c>
+      <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="2"/>
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2076,8 +2046,8 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.862638728836759E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7524296170895153E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -2092,15 +2062,14 @@
       </c>
       <c r="D32">
         <f ca="1">INT(600*I32)</f>
-        <v>390</v>
+        <v>32</v>
       </c>
       <c r="E32">
-        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="F32">
         <f ca="1">D32+E32</f>
-        <v>518</v>
+        <v>316</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2110,7 +2079,7 @@
       </c>
       <c r="I32">
         <f ca="1">RAND()</f>
-        <v>0.65097128447114105</v>
+        <v>5.393598575803138E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -2124,16 +2093,15 @@
         <v>13</v>
       </c>
       <c r="D33">
-        <f t="shared" ref="D33:D61" ca="1" si="4">INT(600*I33)</f>
-        <v>170</v>
+        <f t="shared" ref="D33:D61" ca="1" si="3">INT(600*I33)</f>
+        <v>358</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F61" ca="1" si="5">D33+E33</f>
-        <v>349</v>
+        <f t="shared" ref="F33:F61" ca="1" si="4">D33+E33</f>
+        <v>642</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2142,8 +2110,8 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.28410331149373169</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59821238297555257</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -2157,16 +2125,15 @@
         <v>12</v>
       </c>
       <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="E34">
+        <v>284</v>
+      </c>
+      <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>540</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="5"/>
-        <v>734</v>
+        <v>563</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2175,8 +2142,8 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.90029794500419424</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46526445379638504</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -2190,16 +2157,15 @@
         <v>12</v>
       </c>
       <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>412</v>
+      </c>
+      <c r="E35">
+        <v>284</v>
+      </c>
+      <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="5"/>
-        <v>501</v>
+        <v>696</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2208,8 +2174,8 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.49136462808992731</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.68805479782192258</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -2223,16 +2189,15 @@
         <v>12</v>
       </c>
       <c r="D36">
+        <f t="shared" ca="1" si="3"/>
+        <v>283</v>
+      </c>
+      <c r="E36">
+        <v>284</v>
+      </c>
+      <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="5"/>
-        <v>283</v>
+        <v>567</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2241,8 +2206,8 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.4260385045047728E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47274928637664881</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -2256,16 +2221,15 @@
         <v>12</v>
       </c>
       <c r="D37">
+        <f t="shared" ca="1" si="3"/>
+        <v>596</v>
+      </c>
+      <c r="E37">
+        <v>284</v>
+      </c>
+      <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>338</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="5"/>
-        <v>518</v>
+        <v>880</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2274,8 +2238,8 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.30165648764779074</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.99428489876552162</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -2289,16 +2253,15 @@
         <v>12</v>
       </c>
       <c r="D38">
+        <f t="shared" ca="1" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="E38">
+        <v>284</v>
+      </c>
+      <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>141</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="5"/>
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2307,8 +2270,8 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.23562676824827289</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15546604509715489</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -2322,16 +2285,15 @@
         <v>12</v>
       </c>
       <c r="D39">
+        <f t="shared" ca="1" si="3"/>
+        <v>478</v>
+      </c>
+      <c r="E39">
+        <v>284</v>
+      </c>
+      <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="5"/>
-        <v>800</v>
+        <v>762</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2340,8 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.8341345299822992</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.79762040117087118</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -2355,16 +2317,15 @@
         <v>12</v>
       </c>
       <c r="D40">
+        <f t="shared" ca="1" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="E40">
+        <v>284</v>
+      </c>
+      <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>416</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="5"/>
-        <v>617</v>
+        <v>722</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -2373,8 +2334,8 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.69434430067055808</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.73000070822355834</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -2388,16 +2349,15 @@
         <v>12</v>
       </c>
       <c r="D41">
+        <f t="shared" ca="1" si="3"/>
+        <v>524</v>
+      </c>
+      <c r="E41">
+        <v>284</v>
+      </c>
+      <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>149</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>214</v>
-      </c>
-      <c r="F41">
-        <f t="shared" ca="1" si="5"/>
-        <v>363</v>
+        <v>808</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2406,8 +2366,8 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24879248998356562</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.87412132051956437</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -2421,16 +2381,15 @@
         <v>12</v>
       </c>
       <c r="D42">
+        <f t="shared" ca="1" si="3"/>
+        <v>457</v>
+      </c>
+      <c r="E42">
+        <v>284</v>
+      </c>
+      <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ca="1" si="5"/>
-        <v>644</v>
+        <v>741</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2439,8 +2398,8 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.81796259505166524</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76310019870014079</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -2454,16 +2413,15 @@
         <v>12</v>
       </c>
       <c r="D43">
+        <f t="shared" ca="1" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="E43">
+        <v>284</v>
+      </c>
+      <c r="F43">
         <f t="shared" ca="1" si="4"/>
-        <v>570</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="5"/>
-        <v>785</v>
+        <v>496</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2472,8 +2430,8 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.95044574516582081</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3536355372477834</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -2487,16 +2445,15 @@
         <v>12</v>
       </c>
       <c r="D44">
+        <f t="shared" ca="1" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="E44">
+        <v>284</v>
+      </c>
+      <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>258</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>394</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="5"/>
-        <v>652</v>
+        <v>425</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2505,8 +2462,8 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.4300532172184599</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.23625840891222272</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -2520,16 +2477,15 @@
         <v>12</v>
       </c>
       <c r="D45">
+        <f t="shared" ca="1" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="E45">
+        <v>284</v>
+      </c>
+      <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>364</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>338</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ca="1" si="5"/>
-        <v>702</v>
+        <v>435</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2538,8 +2494,8 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.60700906944868027</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.25330394692827296</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -2553,16 +2509,15 @@
         <v>12</v>
       </c>
       <c r="D46">
+        <f t="shared" ca="1" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>284</v>
+      </c>
+      <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>113</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="F46">
-        <f t="shared" ca="1" si="5"/>
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2571,8 +2526,8 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18846273685119108</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12041488317527316</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -2586,16 +2541,15 @@
         <v>12</v>
       </c>
       <c r="D47">
+        <f t="shared" ca="1" si="3"/>
+        <v>377</v>
+      </c>
+      <c r="E47">
+        <v>284</v>
+      </c>
+      <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>209</v>
-      </c>
-      <c r="F47">
-        <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>661</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2604,8 +2558,8 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.9011555927165023E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.62913452604417119</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -2619,16 +2573,15 @@
         <v>12</v>
       </c>
       <c r="D48">
+        <f t="shared" ca="1" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="E48">
+        <v>284</v>
+      </c>
+      <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>209</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="5"/>
-        <v>609</v>
+        <v>444</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2637,8 +2590,8 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.66805926409087724</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26802441541952637</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -2652,16 +2605,15 @@
         <v>12</v>
       </c>
       <c r="D49">
+        <f t="shared" ca="1" si="3"/>
+        <v>493</v>
+      </c>
+      <c r="E49">
+        <v>284</v>
+      </c>
+      <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>435</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ca="1" si="5"/>
-        <v>728</v>
+        <v>777</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2670,8 +2622,8 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.72504926590001695</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.82263827191846139</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -2685,16 +2637,15 @@
         <v>12</v>
       </c>
       <c r="D50">
+        <f t="shared" ca="1" si="3"/>
+        <v>358</v>
+      </c>
+      <c r="E50">
+        <v>284</v>
+      </c>
+      <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>428</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>312</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ca="1" si="5"/>
-        <v>740</v>
+        <v>642</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2703,8 +2654,8 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.71399554888465622</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59686152685840133</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -2718,16 +2669,15 @@
         <v>12</v>
       </c>
       <c r="D51">
+        <f t="shared" ca="1" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="E51">
+        <v>284</v>
+      </c>
+      <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>372</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="F51">
-        <f t="shared" ca="1" si="5"/>
-        <v>717</v>
+        <v>365</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2736,8 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.6203282195080646</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1356441283753419</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -2751,16 +2701,15 @@
         <v>12</v>
       </c>
       <c r="D52">
+        <f t="shared" ca="1" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="E52">
+        <v>284</v>
+      </c>
+      <c r="F52">
         <f t="shared" ca="1" si="4"/>
-        <v>428</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="F52">
-        <f t="shared" ca="1" si="5"/>
-        <v>668</v>
+        <v>633</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2769,8 +2718,8 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.71431140977520646</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.5831286149354592</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -2784,16 +2733,15 @@
         <v>12</v>
       </c>
       <c r="D53">
+        <f t="shared" ca="1" si="3"/>
+        <v>539</v>
+      </c>
+      <c r="E53">
+        <v>284</v>
+      </c>
+      <c r="F53">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ca="1" si="5"/>
-        <v>368</v>
+        <v>823</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2802,8 +2750,8 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15505389352618992</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89914525310543214</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -2817,16 +2765,15 @@
         <v>12</v>
       </c>
       <c r="D54">
+        <f t="shared" ca="1" si="3"/>
+        <v>554</v>
+      </c>
+      <c r="E54">
+        <v>284</v>
+      </c>
+      <c r="F54">
         <f t="shared" ca="1" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="F54">
-        <f t="shared" ca="1" si="5"/>
-        <v>521</v>
+        <v>838</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2835,8 +2782,8 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.47121916140393527</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9233982742821073</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -2850,16 +2797,15 @@
         <v>12</v>
       </c>
       <c r="D55">
+        <f t="shared" ca="1" si="3"/>
+        <v>558</v>
+      </c>
+      <c r="E55">
+        <v>284</v>
+      </c>
+      <c r="F55">
         <f t="shared" ca="1" si="4"/>
-        <v>386</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="F55">
-        <f t="shared" ca="1" si="5"/>
-        <v>558</v>
+        <v>842</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2868,8 +2814,8 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.64435825981362815</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.93101155173851957</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -2883,16 +2829,15 @@
         <v>12</v>
       </c>
       <c r="D56">
+        <f t="shared" ca="1" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="E56">
+        <v>284</v>
+      </c>
+      <c r="F56">
         <f t="shared" ca="1" si="4"/>
-        <v>283</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>288</v>
-      </c>
-      <c r="F56">
-        <f t="shared" ca="1" si="5"/>
-        <v>571</v>
+        <v>870</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2901,8 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.47260622697821186</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.97803458050505265</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -2916,16 +2861,15 @@
         <v>12</v>
       </c>
       <c r="D57">
+        <f t="shared" ca="1" si="3"/>
+        <v>279</v>
+      </c>
+      <c r="E57">
+        <v>284</v>
+      </c>
+      <c r="F57">
         <f t="shared" ca="1" si="4"/>
-        <v>307</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="F57">
-        <f t="shared" ca="1" si="5"/>
-        <v>652</v>
+        <v>563</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2934,8 +2878,8 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.51175593791614493</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46544178430625571</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -2949,16 +2893,15 @@
         <v>12</v>
       </c>
       <c r="D58">
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="E58">
+        <v>284</v>
+      </c>
+      <c r="F58">
         <f t="shared" ca="1" si="4"/>
-        <v>557</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F58">
-        <f t="shared" ca="1" si="5"/>
-        <v>827</v>
+        <v>344</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2967,8 +2910,8 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.92864017412065047</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10022539300193867</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -2982,16 +2925,15 @@
         <v>12</v>
       </c>
       <c r="D59">
+        <f t="shared" ca="1" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E59">
+        <v>284</v>
+      </c>
+      <c r="F59">
         <f t="shared" ca="1" si="4"/>
-        <v>486</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="F59">
-        <f t="shared" ca="1" si="5"/>
-        <v>716</v>
+        <v>375</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -3000,8 +2942,8 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.81004560660467628</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15180819774415411</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -3015,16 +2957,15 @@
         <v>12</v>
       </c>
       <c r="D60">
+        <f t="shared" ca="1" si="3"/>
+        <v>355</v>
+      </c>
+      <c r="E60">
+        <v>284</v>
+      </c>
+      <c r="F60">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="F60">
-        <f t="shared" ca="1" si="5"/>
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3033,8 +2974,8 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.8680471613295286E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.59247050692244407</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -3048,16 +2989,15 @@
         <v>12</v>
       </c>
       <c r="D61">
+        <f t="shared" ca="1" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="E61">
+        <v>284</v>
+      </c>
+      <c r="F61">
         <f t="shared" ca="1" si="4"/>
-        <v>566</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>296</v>
-      </c>
-      <c r="F61">
-        <f t="shared" ca="1" si="5"/>
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3066,8 +3006,8 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.94416935184635054</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.94748050084119162</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -3082,15 +3022,14 @@
       </c>
       <c r="D62">
         <f ca="1">INT(600*I62)</f>
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="E62">
-        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="F62">
         <f ca="1">D62+E62</f>
-        <v>667</v>
+        <v>566</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -3100,7 +3039,7 @@
       </c>
       <c r="I62">
         <f ca="1">RAND()</f>
-        <v>0.53152346812255891</v>
+        <v>0.47054085692386893</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -3114,16 +3053,15 @@
         <v>15</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D91" ca="1" si="6">INT(600*I63)</f>
-        <v>215</v>
+        <f t="shared" ref="D63:D91" ca="1" si="5">INT(600*I63)</f>
+        <v>575</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>381</v>
+        <v>284</v>
       </c>
       <c r="F63">
-        <f t="shared" ref="F63:F91" ca="1" si="7">D63+E63</f>
-        <v>596</v>
+        <f t="shared" ref="F63:F91" ca="1" si="6">D63+E63</f>
+        <v>859</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3132,8 +3070,8 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.35978529358691358</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.95908215817727183</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -3147,16 +3085,15 @@
         <v>14</v>
       </c>
       <c r="D64">
+        <f t="shared" ca="1" si="5"/>
+        <v>509</v>
+      </c>
+      <c r="E64">
+        <v>284</v>
+      </c>
+      <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>301</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>236</v>
-      </c>
-      <c r="F64">
-        <f t="shared" ca="1" si="7"/>
-        <v>537</v>
+        <v>793</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -3165,8 +3102,8 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.50261686256514038</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84999911890172453</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -3180,16 +3117,15 @@
         <v>14</v>
       </c>
       <c r="D65">
+        <f t="shared" ca="1" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="E65">
+        <v>284</v>
+      </c>
+      <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>175</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>227</v>
-      </c>
-      <c r="F65">
-        <f t="shared" ca="1" si="7"/>
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -3198,8 +3134,8 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.29280470557386928</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26692159589075104</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -3213,16 +3149,15 @@
         <v>14</v>
       </c>
       <c r="D66">
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="E66">
+        <v>284</v>
+      </c>
+      <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>511</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>217</v>
-      </c>
-      <c r="F66">
-        <f t="shared" ca="1" si="7"/>
-        <v>728</v>
+        <v>326</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3231,8 +3166,8 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.85246626578754703</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.036532197402845E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -3246,16 +3181,15 @@
         <v>14</v>
       </c>
       <c r="D67">
+        <f t="shared" ca="1" si="5"/>
+        <v>436</v>
+      </c>
+      <c r="E67">
+        <v>284</v>
+      </c>
+      <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>557</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E91" ca="1" si="8">INT(NORMINV(RAND(),264,60))</f>
-        <v>303</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ca="1" si="7"/>
-        <v>860</v>
+        <v>720</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3264,8 +3198,8 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I91" ca="1" si="9">RAND()</f>
-        <v>0.92865211678910975</v>
+        <f t="shared" ref="I67:I91" ca="1" si="7">RAND()</f>
+        <v>0.72730263553205565</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -3279,26 +3213,25 @@
         <v>14</v>
       </c>
       <c r="D68">
+        <f t="shared" ca="1" si="5"/>
+        <v>593</v>
+      </c>
+      <c r="E68">
+        <v>284</v>
+      </c>
+      <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>510</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="8"/>
-        <v>384</v>
-      </c>
-      <c r="F68">
+        <v>877</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <f t="shared" ca="1" si="7"/>
-        <v>894</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.85002247590510616</v>
+        <v>0.98942162900061248</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -3312,26 +3245,25 @@
         <v>14</v>
       </c>
       <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>482</v>
+      </c>
+      <c r="E69">
+        <v>284</v>
+      </c>
+      <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>385</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="8"/>
-        <v>348</v>
-      </c>
-      <c r="F69">
+        <v>766</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <f t="shared" ca="1" si="7"/>
-        <v>733</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.64294043409592083</v>
+        <v>0.80461847406717624</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -3345,26 +3277,25 @@
         <v>14</v>
       </c>
       <c r="D70">
+        <f t="shared" ca="1" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="E70">
+        <v>284</v>
+      </c>
+      <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>159</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="8"/>
-        <v>342</v>
-      </c>
-      <c r="F70">
+        <v>396</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <f t="shared" ca="1" si="7"/>
-        <v>501</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.26591456722509732</v>
+        <v>0.18699588060817718</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
@@ -3378,26 +3309,25 @@
         <v>14</v>
       </c>
       <c r="D71">
+        <f t="shared" ca="1" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E71">
+        <v>284</v>
+      </c>
+      <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="8"/>
-        <v>294</v>
-      </c>
-      <c r="F71">
+        <v>374</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <f t="shared" ca="1" si="7"/>
-        <v>505</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.3529191705564253</v>
+        <v>0.15067474383897028</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -3411,26 +3341,25 @@
         <v>14</v>
       </c>
       <c r="D72">
+        <f t="shared" ca="1" si="5"/>
+        <v>238</v>
+      </c>
+      <c r="E72">
+        <v>284</v>
+      </c>
+      <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="8"/>
-        <v>261</v>
-      </c>
-      <c r="F72">
+        <v>522</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <f t="shared" ca="1" si="7"/>
-        <v>661</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.66766976396948818</v>
+        <v>0.39734456623500114</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -3444,26 +3373,25 @@
         <v>14</v>
       </c>
       <c r="D73">
+        <f t="shared" ca="1" si="5"/>
+        <v>483</v>
+      </c>
+      <c r="E73">
+        <v>284</v>
+      </c>
+      <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>317</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="8"/>
-        <v>237</v>
-      </c>
-      <c r="F73">
+        <v>767</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <f t="shared" ca="1" si="7"/>
-        <v>554</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.52939766143380396</v>
+        <v>0.80535531663363069</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.4">
@@ -3477,26 +3405,25 @@
         <v>14</v>
       </c>
       <c r="D74">
+        <f t="shared" ca="1" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="E74">
+        <v>284</v>
+      </c>
+      <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>543</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="8"/>
-        <v>172</v>
-      </c>
-      <c r="F74">
+        <v>528</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <f t="shared" ca="1" si="7"/>
-        <v>715</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.90655057558912822</v>
+        <v>0.40698394037717145</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -3510,26 +3437,25 @@
         <v>14</v>
       </c>
       <c r="D75">
+        <f t="shared" ca="1" si="5"/>
+        <v>197</v>
+      </c>
+      <c r="E75">
+        <v>284</v>
+      </c>
+      <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>463</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="8"/>
-        <v>204</v>
-      </c>
-      <c r="F75">
+        <v>481</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <f t="shared" ca="1" si="7"/>
-        <v>667</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.77205987820607924</v>
+        <v>0.32991704532860655</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -3543,26 +3469,25 @@
         <v>14</v>
       </c>
       <c r="D76">
+        <f t="shared" ca="1" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="E76">
+        <v>284</v>
+      </c>
+      <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="8"/>
-        <v>289</v>
-      </c>
-      <c r="F76">
+        <v>591</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <f t="shared" ca="1" si="7"/>
-        <v>354</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10877156731451498</v>
+        <v>0.51198390978723129</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -3576,26 +3501,25 @@
         <v>14</v>
       </c>
       <c r="D77">
+        <f t="shared" ca="1" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="E77">
+        <v>284</v>
+      </c>
+      <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>273</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="8"/>
-        <v>307</v>
-      </c>
-      <c r="F77">
+        <v>585</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <f t="shared" ca="1" si="7"/>
-        <v>580</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.4560576009564925</v>
+        <v>0.50212769037409022</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
@@ -3609,26 +3533,25 @@
         <v>14</v>
       </c>
       <c r="D78">
+        <f t="shared" ca="1" si="5"/>
+        <v>592</v>
+      </c>
+      <c r="E78">
+        <v>284</v>
+      </c>
+      <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="8"/>
-        <v>301</v>
-      </c>
-      <c r="F78">
+        <v>876</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <f t="shared" ca="1" si="7"/>
-        <v>321</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ca="1" si="9"/>
-        <v>3.450284311253482E-2</v>
+        <v>0.98815109588411243</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
@@ -3642,26 +3565,25 @@
         <v>14</v>
       </c>
       <c r="D79">
+        <f t="shared" ca="1" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="E79">
+        <v>284</v>
+      </c>
+      <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="8"/>
-        <v>335</v>
-      </c>
-      <c r="F79">
+        <v>413</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <f t="shared" ca="1" si="7"/>
-        <v>349</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4093533856822225E-2</v>
+        <v>0.21652088895940114</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
@@ -3675,26 +3597,25 @@
         <v>14</v>
       </c>
       <c r="D80">
+        <f t="shared" ca="1" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <v>284</v>
+      </c>
+      <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>499</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="8"/>
-        <v>328</v>
-      </c>
-      <c r="F80">
+        <v>329</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <f t="shared" ca="1" si="7"/>
-        <v>827</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.83300375918778524</v>
+        <v>7.6531961954359962E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.4">
@@ -3708,26 +3629,25 @@
         <v>14</v>
       </c>
       <c r="D81">
+        <f t="shared" ca="1" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="E81">
+        <v>284</v>
+      </c>
+      <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>392</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="8"/>
-        <v>270</v>
-      </c>
-      <c r="F81">
+        <v>398</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <f t="shared" ca="1" si="7"/>
-        <v>662</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.65485058548316244</v>
+        <v>0.19114409734011206</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.4">
@@ -3741,26 +3661,25 @@
         <v>14</v>
       </c>
       <c r="D82">
+        <f t="shared" ca="1" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="E82">
+        <v>284</v>
+      </c>
+      <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="8"/>
-        <v>213</v>
-      </c>
-      <c r="F82">
+        <v>661</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <f t="shared" ca="1" si="7"/>
-        <v>275</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.10386307951909324</v>
+        <v>0.62880252120666824</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
@@ -3774,26 +3693,25 @@
         <v>14</v>
       </c>
       <c r="D83">
+        <f t="shared" ca="1" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="E83">
+        <v>284</v>
+      </c>
+      <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>468</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="8"/>
-        <v>249</v>
-      </c>
-      <c r="F83">
+        <v>599</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <f t="shared" ca="1" si="7"/>
-        <v>717</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.7810010413355557</v>
+        <v>0.52581549407244688</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
@@ -3807,26 +3725,25 @@
         <v>14</v>
       </c>
       <c r="D84">
+        <f t="shared" ca="1" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="E84">
+        <v>284</v>
+      </c>
+      <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="8"/>
-        <v>220</v>
-      </c>
-      <c r="F84">
+        <v>589</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <f t="shared" ca="1" si="7"/>
-        <v>249</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <f t="shared" ca="1" si="9"/>
-        <v>4.8978235162303041E-2</v>
+        <v>0.50948169704498814</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
@@ -3840,26 +3757,25 @@
         <v>14</v>
       </c>
       <c r="D85">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>284</v>
+      </c>
+      <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="8"/>
-        <v>272</v>
-      </c>
-      <c r="F85">
+        <v>297</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <f t="shared" ca="1" si="7"/>
-        <v>315</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <f t="shared" ca="1" si="9"/>
-        <v>7.2261067281266911E-2</v>
+        <v>2.3290719367416446E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
@@ -3873,26 +3789,25 @@
         <v>14</v>
       </c>
       <c r="D86">
+        <f t="shared" ca="1" si="5"/>
+        <v>554</v>
+      </c>
+      <c r="E86">
+        <v>284</v>
+      </c>
+      <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="8"/>
-        <v>208</v>
-      </c>
-      <c r="F86">
+        <v>838</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <f t="shared" ca="1" si="7"/>
-        <v>425</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.36222461841030229</v>
+        <v>0.92398727942009795</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.4">
@@ -3906,26 +3821,25 @@
         <v>14</v>
       </c>
       <c r="D87">
+        <f t="shared" ca="1" si="5"/>
+        <v>417</v>
+      </c>
+      <c r="E87">
+        <v>284</v>
+      </c>
+      <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>437</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="8"/>
-        <v>281</v>
-      </c>
-      <c r="F87">
+        <v>701</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
         <f t="shared" ca="1" si="7"/>
-        <v>718</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.72967614715777385</v>
+        <v>0.69621761857318232</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
@@ -3939,26 +3853,25 @@
         <v>14</v>
       </c>
       <c r="D88">
+        <f t="shared" ca="1" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="E88">
+        <v>284</v>
+      </c>
+      <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="E88">
-        <f t="shared" ca="1" si="8"/>
-        <v>234</v>
-      </c>
-      <c r="F88">
+        <v>461</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
         <f t="shared" ca="1" si="7"/>
-        <v>332</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.16479963815488874</v>
+        <v>0.29640158965189778</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
@@ -3972,26 +3885,25 @@
         <v>14</v>
       </c>
       <c r="D89">
+        <f t="shared" ca="1" si="5"/>
+        <v>473</v>
+      </c>
+      <c r="E89">
+        <v>284</v>
+      </c>
+      <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
-      </c>
-      <c r="E89">
-        <f t="shared" ca="1" si="8"/>
-        <v>350</v>
-      </c>
-      <c r="F89">
+        <v>757</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
         <f t="shared" ca="1" si="7"/>
-        <v>578</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.38116305249629256</v>
+        <v>0.78878030443036729</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
@@ -4005,26 +3917,25 @@
         <v>14</v>
       </c>
       <c r="D90">
+        <f t="shared" ca="1" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="E90">
+        <v>284</v>
+      </c>
+      <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>538</v>
-      </c>
-      <c r="E90">
-        <f t="shared" ca="1" si="8"/>
-        <v>309</v>
-      </c>
-      <c r="F90">
+        <v>402</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
         <f t="shared" ca="1" si="7"/>
-        <v>847</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.89695751301507576</v>
+        <v>0.19787605915533724</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
@@ -4038,26 +3949,25 @@
         <v>14</v>
       </c>
       <c r="D91">
+        <f t="shared" ca="1" si="5"/>
+        <v>532</v>
+      </c>
+      <c r="E91">
+        <v>284</v>
+      </c>
+      <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>263</v>
-      </c>
-      <c r="E91">
-        <f t="shared" ca="1" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="F91">
+        <v>816</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <f t="shared" ca="1" si="7"/>
-        <v>543</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.43874415916212672</v>
+        <v>0.88828071873548908</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
@@ -4072,15 +3982,14 @@
       </c>
       <c r="D92">
         <f ca="1">INT(600*I92)</f>
-        <v>470</v>
+        <v>59</v>
       </c>
       <c r="E92">
-        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="F92">
         <f ca="1">D92+E92</f>
-        <v>784</v>
+        <v>343</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4090,7 +3999,7 @@
       </c>
       <c r="I92">
         <f ca="1">RAND()</f>
-        <v>0.78343906247485506</v>
+        <v>9.8759515064871795E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
@@ -4104,16 +4013,15 @@
         <v>17</v>
       </c>
       <c r="D93">
-        <f t="shared" ref="D93:D121" ca="1" si="10">INT(600*I93)</f>
-        <v>53</v>
+        <f t="shared" ref="D93:D121" ca="1" si="8">INT(600*I93)</f>
+        <v>158</v>
       </c>
       <c r="E93">
-        <f t="shared" ref="E93:E151" ca="1" si="11">INT(NORMINV(RAND(),264,60))</f>
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F121" ca="1" si="12">D93+E93</f>
-        <v>409</v>
+        <f t="shared" ref="F93:F121" ca="1" si="9">D93+E93</f>
+        <v>442</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -4122,8 +4030,8 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93:I151" ca="1" si="13">RAND()</f>
-        <v>8.8926172694521299E-2</v>
+        <f t="shared" ref="I93:I151" ca="1" si="10">RAND()</f>
+        <v>0.26425846759989458</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
@@ -4137,26 +4045,25 @@
         <v>16</v>
       </c>
       <c r="D94">
+        <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="E94">
+        <v>284</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="9"/>
+        <v>372</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <f t="shared" ca="1" si="10"/>
-        <v>300</v>
-      </c>
-      <c r="E94">
-        <f t="shared" ca="1" si="11"/>
-        <v>212</v>
-      </c>
-      <c r="F94">
-        <f t="shared" ca="1" si="12"/>
-        <v>512</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.50154902550989933</v>
+        <v>0.14785718960662408</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
@@ -4170,26 +4077,25 @@
         <v>16</v>
       </c>
       <c r="D95">
+        <f t="shared" ca="1" si="8"/>
+        <v>539</v>
+      </c>
+      <c r="E95">
+        <v>284</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="9"/>
+        <v>823</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <f t="shared" ca="1" si="10"/>
-        <v>543</v>
-      </c>
-      <c r="E95">
-        <f t="shared" ca="1" si="11"/>
-        <v>261</v>
-      </c>
-      <c r="F95">
-        <f t="shared" ca="1" si="12"/>
-        <v>804</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.90626506377836291</v>
+        <v>0.89912400268359183</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.4">
@@ -4203,26 +4109,25 @@
         <v>16</v>
       </c>
       <c r="D96">
+        <f t="shared" ca="1" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="E96">
+        <v>284</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="9"/>
+        <v>643</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <f t="shared" ca="1" si="10"/>
-        <v>560</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="F96">
-        <f t="shared" ca="1" si="12"/>
-        <v>750</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.93383737039191539</v>
+        <v>0.59840441585935567</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.4">
@@ -4236,26 +4141,25 @@
         <v>16</v>
       </c>
       <c r="D97">
+        <f t="shared" ca="1" si="8"/>
+        <v>426</v>
+      </c>
+      <c r="E97">
+        <v>284</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="9"/>
+        <v>710</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
         <f t="shared" ca="1" si="10"/>
-        <v>304</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="11"/>
-        <v>249</v>
-      </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="12"/>
-        <v>553</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.5078247149084103</v>
+        <v>0.71123431195196929</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.4">
@@ -4269,26 +4173,25 @@
         <v>16</v>
       </c>
       <c r="D98">
+        <f t="shared" ca="1" si="8"/>
+        <v>540</v>
+      </c>
+      <c r="E98">
+        <v>284</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="9"/>
+        <v>824</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="11"/>
-        <v>276</v>
-      </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="12"/>
-        <v>311</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.9323385405284146E-2</v>
+        <v>0.90160760191364564</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.4">
@@ -4302,26 +4205,25 @@
         <v>16</v>
       </c>
       <c r="D99">
+        <f t="shared" ca="1" si="8"/>
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>284</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="9"/>
+        <v>419</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <f t="shared" ca="1" si="10"/>
-        <v>284</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="11"/>
-        <v>318</v>
-      </c>
-      <c r="F99">
-        <f t="shared" ca="1" si="12"/>
-        <v>602</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.47436284639345672</v>
+        <v>0.2255311938830038</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.4">
@@ -4335,26 +4237,25 @@
         <v>16</v>
       </c>
       <c r="D100">
+        <f t="shared" ca="1" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="E100">
+        <v>284</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="9"/>
+        <v>422</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <f t="shared" ca="1" si="10"/>
-        <v>480</v>
-      </c>
-      <c r="E100">
-        <f t="shared" ca="1" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="F100">
-        <f t="shared" ca="1" si="12"/>
-        <v>660</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.80113101690469257</v>
+        <v>0.23150179434975016</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
@@ -4368,26 +4269,25 @@
         <v>16</v>
       </c>
       <c r="D101">
+        <f t="shared" ca="1" si="8"/>
+        <v>396</v>
+      </c>
+      <c r="E101">
+        <v>284</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <f t="shared" ca="1" si="10"/>
-        <v>271</v>
-      </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="11"/>
-        <v>243</v>
-      </c>
-      <c r="F101">
-        <f t="shared" ca="1" si="12"/>
-        <v>514</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.45192262916716963</v>
+        <v>0.66098749011792401</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
@@ -4401,26 +4301,25 @@
         <v>16</v>
       </c>
       <c r="D102">
+        <f t="shared" ca="1" si="8"/>
+        <v>315</v>
+      </c>
+      <c r="E102">
+        <v>284</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="9"/>
+        <v>599</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <f t="shared" ca="1" si="10"/>
-        <v>157</v>
-      </c>
-      <c r="E102">
-        <f t="shared" ca="1" si="11"/>
-        <v>193</v>
-      </c>
-      <c r="F102">
-        <f t="shared" ca="1" si="12"/>
-        <v>350</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.26262913441965874</v>
+        <v>0.52512309078645814</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
@@ -4434,26 +4333,25 @@
         <v>16</v>
       </c>
       <c r="D103">
+        <f t="shared" ca="1" si="8"/>
+        <v>399</v>
+      </c>
+      <c r="E103">
+        <v>284</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="9"/>
+        <v>683</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <f t="shared" ca="1" si="10"/>
-        <v>205</v>
-      </c>
-      <c r="E103">
-        <f t="shared" ca="1" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="F103">
-        <f t="shared" ca="1" si="12"/>
-        <v>415</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.34308291630141496</v>
+        <v>0.66575145235236133</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
@@ -4467,26 +4365,25 @@
         <v>16</v>
       </c>
       <c r="D104">
+        <f t="shared" ca="1" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="E104">
+        <v>284</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="9"/>
+        <v>435</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <f t="shared" ca="1" si="10"/>
-        <v>519</v>
-      </c>
-      <c r="E104">
-        <f t="shared" ca="1" si="11"/>
-        <v>232</v>
-      </c>
-      <c r="F104">
-        <f t="shared" ca="1" si="12"/>
-        <v>751</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.86559192854153877</v>
+        <v>0.25223831179558309</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
@@ -4500,26 +4397,25 @@
         <v>16</v>
       </c>
       <c r="D105">
+        <f t="shared" ca="1" si="8"/>
+        <v>599</v>
+      </c>
+      <c r="E105">
+        <v>284</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="9"/>
+        <v>883</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
         <f t="shared" ca="1" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="E105">
-        <f t="shared" ca="1" si="11"/>
-        <v>223</v>
-      </c>
-      <c r="F105">
-        <f t="shared" ca="1" si="12"/>
-        <v>283</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.10071909653494071</v>
+        <v>0.99858326335003678</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
@@ -4533,26 +4429,25 @@
         <v>16</v>
       </c>
       <c r="D106">
+        <f t="shared" ca="1" si="8"/>
+        <v>132</v>
+      </c>
+      <c r="E106">
+        <v>284</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="9"/>
+        <v>416</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="E106">
-        <f t="shared" ca="1" si="11"/>
-        <v>356</v>
-      </c>
-      <c r="F106">
-        <f t="shared" ca="1" si="12"/>
-        <v>370</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.4863017521845276E-2</v>
+        <v>0.22151707824193989</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
@@ -4566,26 +4461,25 @@
         <v>16</v>
       </c>
       <c r="D107">
+        <f t="shared" ca="1" si="8"/>
+        <v>378</v>
+      </c>
+      <c r="E107">
+        <v>284</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="9"/>
+        <v>662</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <f t="shared" ca="1" si="10"/>
-        <v>362</v>
-      </c>
-      <c r="E107">
-        <f t="shared" ca="1" si="11"/>
-        <v>229</v>
-      </c>
-      <c r="F107">
-        <f t="shared" ca="1" si="12"/>
-        <v>591</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.60333635651186845</v>
+        <v>0.63129485870438951</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
@@ -4599,26 +4493,25 @@
         <v>16</v>
       </c>
       <c r="D108">
+        <f t="shared" ca="1" si="8"/>
+        <v>266</v>
+      </c>
+      <c r="E108">
+        <v>284</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="9"/>
+        <v>550</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
         <f t="shared" ca="1" si="10"/>
-        <v>243</v>
-      </c>
-      <c r="E108">
-        <f t="shared" ca="1" si="11"/>
-        <v>240</v>
-      </c>
-      <c r="F108">
-        <f t="shared" ca="1" si="12"/>
-        <v>483</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.40539264767585381</v>
+        <v>0.443355435665447</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
@@ -4632,26 +4525,25 @@
         <v>16</v>
       </c>
       <c r="D109">
+        <f t="shared" ca="1" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="E109">
+        <v>284</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="9"/>
+        <v>852</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <f t="shared" ca="1" si="10"/>
-        <v>332</v>
-      </c>
-      <c r="E109">
-        <f t="shared" ca="1" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ca="1" si="12"/>
-        <v>452</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.5534060046008844</v>
+        <v>0.94727936137164004</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
@@ -4665,26 +4557,25 @@
         <v>16</v>
       </c>
       <c r="D110">
+        <f t="shared" ca="1" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="E110">
+        <v>284</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="9"/>
+        <v>323</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="E110">
-        <f t="shared" ca="1" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="F110">
-        <f t="shared" ca="1" si="12"/>
-        <v>316</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.17683111643831961</v>
+        <v>6.5822387552137429E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
@@ -4698,26 +4589,25 @@
         <v>16</v>
       </c>
       <c r="D111">
+        <f t="shared" ca="1" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="E111">
+        <v>284</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="9"/>
+        <v>764</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
         <f t="shared" ca="1" si="10"/>
-        <v>337</v>
-      </c>
-      <c r="E111">
-        <f t="shared" ca="1" si="11"/>
-        <v>304</v>
-      </c>
-      <c r="F111">
-        <f t="shared" ca="1" si="12"/>
-        <v>641</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.5626427284202683</v>
+        <v>0.80092182051282179</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.4">
@@ -4731,26 +4621,25 @@
         <v>16</v>
       </c>
       <c r="D112">
+        <f t="shared" ca="1" si="8"/>
+        <v>211</v>
+      </c>
+      <c r="E112">
+        <v>284</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="9"/>
+        <v>495</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <f t="shared" ca="1" si="10"/>
-        <v>82</v>
-      </c>
-      <c r="E112">
-        <f t="shared" ca="1" si="11"/>
-        <v>358</v>
-      </c>
-      <c r="F112">
-        <f t="shared" ca="1" si="12"/>
-        <v>440</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.13833135173716082</v>
+        <v>0.3524361262541521</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
@@ -4764,26 +4653,25 @@
         <v>16</v>
       </c>
       <c r="D113">
+        <f t="shared" ca="1" si="8"/>
+        <v>579</v>
+      </c>
+      <c r="E113">
+        <v>284</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="9"/>
+        <v>863</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <f t="shared" ca="1" si="10"/>
-        <v>307</v>
-      </c>
-      <c r="E113">
-        <f t="shared" ca="1" si="11"/>
-        <v>184</v>
-      </c>
-      <c r="F113">
-        <f t="shared" ca="1" si="12"/>
-        <v>491</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.51217849936029491</v>
+        <v>0.96537974554190265</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.4">
@@ -4797,26 +4685,25 @@
         <v>16</v>
       </c>
       <c r="D114">
+        <f t="shared" ca="1" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="E114">
+        <v>284</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="9"/>
+        <v>473</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
         <f t="shared" ca="1" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="E114">
-        <f t="shared" ca="1" si="11"/>
-        <v>377</v>
-      </c>
-      <c r="F114">
-        <f t="shared" ca="1" si="12"/>
-        <v>397</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.3844335892770583E-2</v>
+        <v>0.31586990770620627</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.4">
@@ -4830,26 +4717,25 @@
         <v>16</v>
       </c>
       <c r="D115">
+        <f t="shared" ca="1" si="8"/>
+        <v>222</v>
+      </c>
+      <c r="E115">
+        <v>284</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="9"/>
+        <v>506</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
         <f t="shared" ca="1" si="10"/>
-        <v>333</v>
-      </c>
-      <c r="E115">
-        <f t="shared" ca="1" si="11"/>
-        <v>261</v>
-      </c>
-      <c r="F115">
-        <f t="shared" ca="1" si="12"/>
-        <v>594</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.55619298809689466</v>
+        <v>0.37019509725624411</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.4">
@@ -4863,26 +4749,25 @@
         <v>16</v>
       </c>
       <c r="D116">
+        <f t="shared" ca="1" si="8"/>
+        <v>436</v>
+      </c>
+      <c r="E116">
+        <v>284</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
         <f t="shared" ca="1" si="10"/>
-        <v>374</v>
-      </c>
-      <c r="E116">
-        <f t="shared" ca="1" si="11"/>
-        <v>308</v>
-      </c>
-      <c r="F116">
-        <f t="shared" ca="1" si="12"/>
-        <v>682</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.62361305267614242</v>
+        <v>0.72699387553427364</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.4">
@@ -4896,26 +4781,25 @@
         <v>16</v>
       </c>
       <c r="D117">
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="E117">
+        <v>284</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="9"/>
+        <v>339</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
         <f t="shared" ca="1" si="10"/>
-        <v>495</v>
-      </c>
-      <c r="E117">
-        <f t="shared" ca="1" si="11"/>
-        <v>205</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ca="1" si="12"/>
-        <v>700</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.82624257098070786</v>
+        <v>9.1976843276013964E-2</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
@@ -4929,26 +4813,25 @@
         <v>16</v>
       </c>
       <c r="D118">
+        <f t="shared" ca="1" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="E118">
+        <v>284</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="9"/>
+        <v>357</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <f t="shared" ca="1" si="10"/>
-        <v>424</v>
-      </c>
-      <c r="E118">
-        <f t="shared" ca="1" si="11"/>
-        <v>233</v>
-      </c>
-      <c r="F118">
-        <f t="shared" ca="1" si="12"/>
-        <v>657</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.70734793612661118</v>
+        <v>0.12239411729300098</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
@@ -4962,26 +4845,25 @@
         <v>16</v>
       </c>
       <c r="D119">
+        <f t="shared" ca="1" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>284</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="9"/>
+        <v>539</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
-      </c>
-      <c r="E119">
-        <f t="shared" ca="1" si="11"/>
-        <v>210</v>
-      </c>
-      <c r="F119">
-        <f t="shared" ca="1" si="12"/>
-        <v>438</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.38160969430972369</v>
+        <v>0.42549123305603254</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
@@ -4995,26 +4877,25 @@
         <v>16</v>
       </c>
       <c r="D120">
+        <f t="shared" ca="1" si="8"/>
+        <v>587</v>
+      </c>
+      <c r="E120">
+        <v>284</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="9"/>
+        <v>871</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <f t="shared" ca="1" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="E120">
-        <f t="shared" ca="1" si="11"/>
-        <v>286</v>
-      </c>
-      <c r="F120">
-        <f t="shared" ca="1" si="12"/>
-        <v>490</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.34068377120029081</v>
+        <v>0.97881882284432442</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
@@ -5028,26 +4909,25 @@
         <v>16</v>
       </c>
       <c r="D121">
+        <f t="shared" ca="1" si="8"/>
+        <v>314</v>
+      </c>
+      <c r="E121">
+        <v>284</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="9"/>
+        <v>598</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <f t="shared" ca="1" si="10"/>
-        <v>523</v>
-      </c>
-      <c r="E121">
-        <f t="shared" ca="1" si="11"/>
-        <v>145</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ca="1" si="12"/>
-        <v>668</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.87171034311193507</v>
+        <v>0.52450288866696393</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
@@ -5062,15 +4942,14 @@
       </c>
       <c r="D122">
         <f ca="1">INT(600*I122)</f>
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="E122">
-        <f ca="1">INT(NORMINV(RAND(),264,60))</f>
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F122">
         <f ca="1">D122+E122</f>
-        <v>611</v>
+        <v>405</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -5080,7 +4959,7 @@
       </c>
       <c r="I122">
         <f ca="1">RAND()</f>
-        <v>0.51214078134597485</v>
+        <v>0.20231518853448471</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
@@ -5094,16 +4973,15 @@
         <v>19</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D151" ca="1" si="14">INT(600*I123)</f>
-        <v>74</v>
+        <f t="shared" ref="D123:D151" ca="1" si="11">INT(600*I123)</f>
+        <v>63</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="11"/>
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F123">
-        <f t="shared" ref="F123:F151" ca="1" si="15">D123+E123</f>
-        <v>344</v>
+        <f t="shared" ref="F123:F151" ca="1" si="12">D123+E123</f>
+        <v>347</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -5112,8 +4990,8 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.12347419101445889</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10607046072900006</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -5127,16 +5005,15 @@
         <v>18</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="14"/>
-        <v>549</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>561</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="11"/>
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="F124">
-        <f t="shared" ca="1" si="15"/>
-        <v>866</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>845</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5145,8 +5022,8 @@
         <v>0</v>
       </c>
       <c r="I124">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.91524872471613083</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.93628762634517204</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -5160,16 +5037,15 @@
         <v>18</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="14"/>
-        <v>123</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>394</v>
       </c>
       <c r="E125">
-        <f t="shared" ca="1" si="11"/>
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F125">
-        <f t="shared" ca="1" si="15"/>
-        <v>402</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>678</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -5178,8 +5054,8 @@
         <v>0</v>
       </c>
       <c r="I125">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.20563186791871157</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.65800640356013174</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.4">
@@ -5193,16 +5069,15 @@
         <v>18</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="14"/>
-        <v>487</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>345</v>
       </c>
       <c r="E126">
-        <f t="shared" ca="1" si="11"/>
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F126">
-        <f t="shared" ca="1" si="15"/>
-        <v>772</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>629</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -5211,8 +5086,8 @@
         <v>0</v>
       </c>
       <c r="I126">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.81233936242470306</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.57501998068105553</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -5226,16 +5101,15 @@
         <v>18</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="14"/>
-        <v>164</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>309</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="11"/>
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F127">
-        <f t="shared" ca="1" si="15"/>
-        <v>452</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>593</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5244,8 +5118,8 @@
         <v>0</v>
       </c>
       <c r="I127">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.27461279956338203</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.51621699800603382</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -5259,16 +5133,15 @@
         <v>18</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="14"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>284</v>
       </c>
       <c r="E128">
-        <f t="shared" ca="1" si="11"/>
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="F128">
-        <f t="shared" ca="1" si="15"/>
-        <v>511</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>568</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5277,8 +5150,8 @@
         <v>0</v>
       </c>
       <c r="I128">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.33439111366414942</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47436302564696631</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -5292,16 +5165,15 @@
         <v>18</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="14"/>
-        <v>207</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>483</v>
       </c>
       <c r="E129">
-        <f t="shared" ca="1" si="11"/>
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="F129">
-        <f t="shared" ca="1" si="15"/>
-        <v>372</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>767</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5310,8 +5182,8 @@
         <v>0</v>
       </c>
       <c r="I129">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.34651603737328485</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.80532372786174522</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.4">
@@ -5325,16 +5197,15 @@
         <v>18</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="14"/>
-        <v>270</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>569</v>
       </c>
       <c r="E130">
-        <f t="shared" ca="1" si="11"/>
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="F130">
-        <f t="shared" ca="1" si="15"/>
-        <v>486</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>853</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -5343,8 +5214,8 @@
         <v>0</v>
       </c>
       <c r="I130">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.45082896122722371</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.94879365732044052</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.4">
@@ -5358,16 +5229,15 @@
         <v>18</v>
       </c>
       <c r="D131">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="11"/>
         <v>127</v>
       </c>
       <c r="E131">
-        <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="F131">
-        <f t="shared" ca="1" si="15"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>411</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5376,8 +5246,8 @@
         <v>0</v>
       </c>
       <c r="I131">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.21226777897153992</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.21169754931663531</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.4">
@@ -5391,16 +5261,15 @@
         <v>18</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="14"/>
-        <v>243</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>320</v>
       </c>
       <c r="E132">
-        <f t="shared" ca="1" si="11"/>
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F132">
-        <f t="shared" ca="1" si="15"/>
-        <v>510</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>604</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -5409,8 +5278,8 @@
         <v>0</v>
       </c>
       <c r="I132">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.40552425037497675</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.53418022969217738</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.4">
@@ -5424,16 +5293,15 @@
         <v>18</v>
       </c>
       <c r="D133">
-        <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>483</v>
       </c>
       <c r="E133">
-        <f t="shared" ca="1" si="11"/>
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F133">
-        <f t="shared" ca="1" si="15"/>
-        <v>354</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>767</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -5442,8 +5310,8 @@
         <v>0</v>
       </c>
       <c r="I133">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.10315506311322931</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.80552503108623796</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.4">
@@ -5457,16 +5325,15 @@
         <v>18</v>
       </c>
       <c r="D134">
-        <f t="shared" ca="1" si="14"/>
-        <v>347</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>458</v>
       </c>
       <c r="E134">
-        <f t="shared" ca="1" si="11"/>
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F134">
-        <f t="shared" ca="1" si="15"/>
-        <v>648</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>742</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -5475,8 +5342,8 @@
         <v>0</v>
       </c>
       <c r="I134">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.57863898479906595</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.76347744548643814</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.4">
@@ -5490,16 +5357,15 @@
         <v>18</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="14"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>501</v>
       </c>
       <c r="E135">
-        <f t="shared" ca="1" si="11"/>
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="F135">
-        <f t="shared" ca="1" si="15"/>
-        <v>263</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>785</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -5508,8 +5374,8 @@
         <v>0</v>
       </c>
       <c r="I135">
-        <f t="shared" ca="1" si="13"/>
-        <v>4.2397982101134435E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.83512697682235271</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.4">
@@ -5523,16 +5389,15 @@
         <v>18</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="14"/>
-        <v>406</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>144</v>
       </c>
       <c r="E136">
-        <f t="shared" ca="1" si="11"/>
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F136">
-        <f t="shared" ca="1" si="15"/>
-        <v>719</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>428</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -5541,8 +5406,8 @@
         <v>0</v>
       </c>
       <c r="I136">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.67710506413111682</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.24141363809763272</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.4">
@@ -5556,16 +5421,15 @@
         <v>18</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="14"/>
-        <v>562</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>193</v>
       </c>
       <c r="E137">
-        <f t="shared" ca="1" si="11"/>
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F137">
-        <f t="shared" ca="1" si="15"/>
-        <v>857</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>477</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5574,8 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I137">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.93681219115408887</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.32326300407070541</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.4">
@@ -5589,16 +5453,15 @@
         <v>18</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="14"/>
-        <v>505</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>94</v>
       </c>
       <c r="E138">
-        <f t="shared" ca="1" si="11"/>
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F138">
-        <f t="shared" ca="1" si="15"/>
-        <v>792</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>378</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -5607,8 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.84290946128086375</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.15793709999645222</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
@@ -5622,16 +5485,15 @@
         <v>18</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="14"/>
-        <v>477</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>328</v>
       </c>
       <c r="E139">
-        <f t="shared" ca="1" si="11"/>
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="F139">
-        <f t="shared" ca="1" si="15"/>
-        <v>753</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>612</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -5640,8 +5502,8 @@
         <v>0</v>
       </c>
       <c r="I139">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.79560335660021231</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.54678925396994449</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
@@ -5655,16 +5517,15 @@
         <v>18</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="14"/>
-        <v>547</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>307</v>
       </c>
       <c r="E140">
-        <f t="shared" ca="1" si="11"/>
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F140">
-        <f t="shared" ca="1" si="15"/>
-        <v>815</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>591</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -5673,8 +5534,8 @@
         <v>0</v>
       </c>
       <c r="I140">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.91263619178050326</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.51301896685253301</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
@@ -5688,16 +5549,15 @@
         <v>18</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="14"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>456</v>
       </c>
       <c r="E141">
-        <f t="shared" ca="1" si="11"/>
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="F141">
-        <f t="shared" ca="1" si="15"/>
-        <v>348</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>740</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -5706,8 +5566,8 @@
         <v>0</v>
       </c>
       <c r="I141">
-        <f t="shared" ca="1" si="13"/>
-        <v>7.551072538683512E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.76090786789350939</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.4">
@@ -5721,16 +5581,15 @@
         <v>18</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="14"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>153</v>
       </c>
       <c r="E142">
-        <f t="shared" ca="1" si="11"/>
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="F142">
-        <f t="shared" ca="1" si="15"/>
-        <v>407</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>437</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -5739,8 +5598,8 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.25217244191737032</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.25603131558205416</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.4">
@@ -5754,16 +5613,15 @@
         <v>18</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="14"/>
-        <v>143</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
       </c>
       <c r="E143">
-        <f t="shared" ca="1" si="11"/>
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F143">
-        <f t="shared" ca="1" si="15"/>
-        <v>411</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>298</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -5772,8 +5630,8 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.23949031787751562</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>2.4006500339828762E-2</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.4">
@@ -5787,16 +5645,15 @@
         <v>18</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>515</v>
       </c>
       <c r="E144">
-        <f t="shared" ca="1" si="11"/>
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F144">
-        <f t="shared" ca="1" si="15"/>
-        <v>314</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>799</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -5805,8 +5662,8 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.1675996989210402E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.85979009386781513</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.4">
@@ -5820,16 +5677,15 @@
         <v>18</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
       </c>
       <c r="E145">
-        <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="F145">
-        <f t="shared" ca="1" si="15"/>
-        <v>127</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>333</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -5838,8 +5694,8 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <f t="shared" ca="1" si="13"/>
-        <v>9.9372174450073736E-2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2661225384323633E-2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.4">
@@ -5853,16 +5709,15 @@
         <v>18</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="14"/>
-        <v>387</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>248</v>
       </c>
       <c r="E146">
-        <f t="shared" ca="1" si="11"/>
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="F146">
-        <f t="shared" ca="1" si="15"/>
-        <v>695</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>532</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -5871,8 +5726,8 @@
         <v>0</v>
       </c>
       <c r="I146">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.64570349298760699</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.41385720748536259</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.4">
@@ -5886,16 +5741,15 @@
         <v>18</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="14"/>
-        <v>283</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
       </c>
       <c r="E147">
-        <f t="shared" ca="1" si="11"/>
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="F147">
-        <f t="shared" ca="1" si="15"/>
-        <v>546</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>320</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -5904,8 +5758,8 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.47253286475268585</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>6.1266651049507459E-2</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.4">
@@ -5919,16 +5773,15 @@
         <v>18</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="14"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>576</v>
       </c>
       <c r="E148">
-        <f t="shared" ca="1" si="11"/>
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="F148">
-        <f t="shared" ca="1" si="15"/>
-        <v>351</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>860</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -5937,8 +5790,8 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.24355635205873349</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.96159992858035659</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.4">
@@ -5952,16 +5805,15 @@
         <v>18</v>
       </c>
       <c r="D149">
-        <f t="shared" ca="1" si="14"/>
-        <v>592</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>144</v>
       </c>
       <c r="E149">
-        <f t="shared" ca="1" si="11"/>
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F149">
-        <f t="shared" ca="1" si="15"/>
-        <v>976</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>428</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -5970,8 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I149">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.98820178134021142</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.24010553005446267</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.4">
@@ -5985,16 +5837,15 @@
         <v>18</v>
       </c>
       <c r="D150">
-        <f t="shared" ca="1" si="14"/>
-        <v>580</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>452</v>
       </c>
       <c r="E150">
-        <f t="shared" ca="1" si="11"/>
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="F150">
-        <f t="shared" ca="1" si="15"/>
-        <v>797</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>736</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -6003,8 +5854,8 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.96807856372916112</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.754409816825243</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.4">
@@ -6018,16 +5869,15 @@
         <v>18</v>
       </c>
       <c r="D151">
-        <f t="shared" ca="1" si="14"/>
-        <v>252</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>196</v>
       </c>
       <c r="E151">
-        <f t="shared" ca="1" si="11"/>
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="F151">
-        <f t="shared" ca="1" si="15"/>
-        <v>603</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>480</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -6036,8 +5886,8 @@
         <v>0</v>
       </c>
       <c r="I151">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.42083303445553966</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0.32780483279596462</v>
       </c>
     </row>
   </sheetData>
